--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/20_Burdur_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/20_Burdur_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19966C8-91C3-4BC3-85C3-BC28BDEA888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59D43D8-2EAB-403C-8E38-914DFE62B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{9296A50F-B1BC-468C-BE4E-D130CBACB38E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{DBA05FBF-BD44-4DD7-8461-DEC5A34B0F41}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -955,13 +955,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EE44029A-CE4B-4732-AE0A-A3F79C949D92}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A8A042D1-E237-4CFF-A315-863695354E9B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{515139C2-036D-4B6C-8506-622094A29F85}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{87745E6F-8C98-48E6-90CB-C1EFB2313012}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0DE6EC1F-3A5A-433B-B4DC-9FA897743F61}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{CBFEEA86-A235-4346-978C-050D6E1DF83C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5D098689-6BDE-48C1-86CD-49C93A8F539E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{036B7A51-A74A-47EC-9DB9-81A9ED1A88C7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{58F8EE25-F032-42A4-9183-6E3884739573}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3CDA78D9-3886-4DCE-8EF6-AB0EFB023DE4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1BB2B733-C2B4-45C4-BCE0-B40F7A1ABA0B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2C1E441E-57DD-4707-A09C-37B5B59DBB91}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2228FE13-48AE-4D21-98D1-239666497D74}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DBAE9887-1923-4D74-B44C-4C56397D56D3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9176B3D2-8B49-4396-86ED-4A7567D091F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A98B9-359C-40A1-8481-B8C0A426DA2C}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2625,18 +2625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93822E25-B263-48D7-9C65-27C63C185A6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21230B3E-AA49-4E15-A748-85E2993393A9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78755E1B-2046-4B18-A9D5-94C11F676A6C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7C00DE4-5B96-49D2-A780-8E934B1DD957}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C0563786-3193-4167-8C6B-437B26D8EB1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE9AC9D8-AE7C-4721-979A-BE2664DD607D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEBF80AA-1496-4ABB-9FFE-2476BD83C4B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1241C425-6A31-4678-993E-EFED55260D76}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A756BAAC-0CFD-4DD7-8D0D-E7269EB85869}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C87DB75-6101-4122-B695-13BE61770908}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{685D89CB-5009-4E40-846C-9E0C72515FEE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D656B215-A816-43A6-8AEE-D58897737131}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA3FB2DC-2D71-465D-B176-E2E1D4FA9C0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A49A9E2D-F1A3-4175-84BC-EB8A0F01A1F2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFC81F76-7750-414B-8146-7196917AC7F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B61C62F-C00F-40B8-BE73-CDD5C60945CE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B3F32114-AAA3-4EFB-906E-317A56E19527}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{800F450E-7D13-404B-8A28-280F9A33995A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD769B87-9726-4033-B19C-D55F270353D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F471F153-73BA-44F5-8482-C52D1AAE073C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AD1A0B1-F463-444E-B2ED-5E01DA8413BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE81EAA8-86A1-49A9-96B0-843A6C358813}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{350147EC-186A-4D55-82A7-11D245DA432F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A54C2C6-320E-4000-96A1-4E29FEAC023E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F68288-D481-4F90-9E36-90FF229A7C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004D2F6-BB32-4011-8AB0-7957684F53C3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3922,18 +3922,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2207C3F1-EE10-48DB-89A1-6110A74F8C8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3286822E-B46E-44FB-9F50-CA3A4D9E2CE2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91C194CE-1917-4BC5-8B03-342389BE1144}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3087AA8C-EC9D-4335-AC46-47C3026D38E3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B8F7ECED-F4D3-484C-B03B-1CBACAD35725}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E730AE56-AD5A-43EB-8408-9A73FCFC103F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81500064-CE47-4839-988C-C1AEAA007C22}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45BE52B7-37CF-4BC9-AB0F-CAA6C829B99D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{078CA827-B10B-43D3-8E61-C58419FF7222}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1C7787F-428D-4320-BB23-FE0FC3A2CF44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FFEE787-11C3-409A-9512-806D9A18574C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0580659-9EB9-49A7-B436-E716E72E021D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B314560-411B-4593-BEFC-5DA034A4E3D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{206EE7F6-995E-450C-A9D2-D797EA8F7562}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F23F5272-2365-4B18-AAC7-68B1E5074017}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{625A4B6C-E025-465A-A65A-9D17F4DF37D4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{491C6ACE-B3DE-4220-9C9C-BBF75C8CEE8D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1C2F792-029B-45C9-9044-1C6D34DCB838}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7182C0DD-7B8D-48EC-8914-F2902D9FA486}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{773BE1ED-EF48-42DA-89C7-EFCB894DE9BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7DA2487-364D-4790-858F-D50F467C7A4E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EA43C21-28D7-42B9-8DF5-4ABDD50F4CE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8174264A-9FA4-4DFD-B9F7-BA1AEC65BC55}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89DCD5D9-7701-49A4-B64E-5B5DA5C5BC14}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3946,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEEEC34-4A8B-4E37-B3C7-984374C6C684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3855BC92-5E05-4D2F-9B21-A27F96F9A221}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5221,18 +5221,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{919BE540-7D45-4A8F-8A06-0A08A0C5C6E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0441F80C-DD54-4F16-848F-3D0AC242C970}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9DF87684-0182-40B7-BD74-57968A261883}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F30B319B-A505-425A-AD5E-E3510E54D1EF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{881384F7-6DC2-4E72-9585-DAB543636CA1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6249550-CEB3-4A03-A548-86E60CD8CC36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66E77540-3E2F-499E-83A1-A2DA8CAEF951}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B76391A-1C97-4F37-902E-38EE1CDB3B4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97204C4C-2ACE-44EE-8DAD-DA24AFE02492}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0B20C51-57A9-43E5-B893-1B563AD89CAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A16C38E-61DC-4FFF-9A74-4754C5D1A2CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D23CAEE3-2F7F-409B-9B4A-CB27CE9FD6AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B307E7C9-6B20-45B2-A912-5946AB275ED1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C96F1702-4DFF-4659-AB64-B2A4194C83F2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1CA8D1D-0C63-4C7D-AF29-95E8EB33240B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CAE4A8EA-BFEA-48FC-9C6F-34AFB1872D22}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{81AC2E31-DB96-44E4-B7FD-EA880D2FEA95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9FCD0B6-FCC0-4F33-BECD-C202C6D1288A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14D989EC-B774-4C36-A9D3-1404E7C8AAB4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AD4A1B2-6DFA-4997-9DFD-2F5D345CDB8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D224E22F-F123-4B04-84C5-BA262E85171B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{144691E9-1443-42C4-B41F-807CCEC2D38C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9733206E-49A0-456C-B189-69C53528FF41}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{379F98F3-7C45-4C1A-9328-4690F3D114DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5245,7 +5245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52D26D6-E2D0-4CF5-8F04-85E795DE7367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD84F0-B03B-4974-8FA3-8C6E82F7FD89}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6509,18 +6509,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7E47C82-E8A4-4FC6-9EBC-25F3E0EB57B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8290DBA8-1C3D-444E-B772-E5E7CAD39D76}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{821A4D80-2DB6-47FE-9ECE-DEB5E89CDCD8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63048F0A-0138-4E29-A382-9671D5DFB6C0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{96FDD66F-EDD5-4983-BF20-0E4D229315E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16DE2E13-251C-49AF-A85E-23CAD2662598}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36D7DDE4-EC2E-4718-9AAC-8DAFD8036FD2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CD670B9-43D3-45A2-9D44-44C6294612F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DFB5D66-A57C-4CC1-863F-B82CFEBECBB6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{394D2878-3BBA-4B53-BB63-EB8468F99BE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82A353AF-9A49-419A-9A96-CBE11543EF0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7C01E2B-72E5-4154-9279-0CD3BB66C3FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20A19ED9-4096-4370-96AB-CA702F696BD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{391E4460-192D-4CF5-AC59-2D84F86602D9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81EF9B30-8F2D-481C-9D0D-0791B4679F5F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF785F11-13E9-4FFC-A4FC-3DC0F05681F3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{48B203E8-A637-425F-85DF-435BA8C1EA37}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85B611A0-39B0-41C8-9841-DFDD08EC3F63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07219C0D-A7F5-4996-9A64-F71D9ED5B43B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1550BCF3-39FC-43D2-81FD-E21BE7A19E7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BA8D9CD-7F3E-4289-A7D6-88027018BE1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B662BA3-A9F3-4D00-AE8B-73F69A1F14BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DCAB414-E4A0-4A24-A0F0-A4E84079A72E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D69A33F-FF30-4189-9460-ADA2C8B917CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6533,7 +6533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6670391-34BA-4B26-867A-ABFFE9BD4E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA93EC0F-D218-450A-8466-5821061A72DF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7824,18 +7824,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{900C6A75-172C-4BCE-8DC8-3C566A35378C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EACFA72-CCA4-4165-81D7-4E46F149E6E4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{53265773-BA3C-4969-B38B-FF1017B61AE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCA0F35C-A7DE-4A17-AEE0-491715B148CD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7116AC01-251B-4BA4-9306-5930C7027ABB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53E5B4AA-49A5-433C-9042-1D193A4BF3BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50D93205-4A1A-4C87-96EB-7CF7290946BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4613DE3E-8E82-4341-B518-A4CD0B995B9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C9A5EEC-6E69-441C-BAE7-0A249217D095}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{724B7982-2C4A-458E-853F-7634E1B45206}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F0C25A6-DC45-41B3-8373-B2573A9DDD7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79B7ECF9-527A-426F-A771-991DE70372AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{446170B5-E210-4DE3-8EAF-4E18FBF18D26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{675AE4AE-4F14-4953-82BB-B193AE7A0E41}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{60C98100-1206-49C2-AAC2-7008DA8065F6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D617F3BC-E304-4A39-8230-FE7701B4961E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A863CF03-F04A-4B0A-A2B8-C8FE43ECC623}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8DB13F9F-1533-4193-B7B8-A93FFA9C84D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED917E2F-8D24-44DD-9C26-068C9720B8CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9697677-8580-47C0-A7E9-FB5B72B4E95A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71DB222B-E27D-4E30-B4BF-72E508D043AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE054509-8AA0-43A7-B739-1E0DC71A4B4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85F4BC25-4B09-4AF5-8C15-EE3AAA4695A8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09B7F612-A2F6-4588-BE80-40A5A262D281}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7848,7 +7848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3343F44-9887-48C5-84E2-526465BD02F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63CE9CC-80AB-41E2-A84E-0A80B4974C1A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9139,18 +9139,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C39A4D7-7BC6-452F-9BB7-F494946FC8C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{720E8512-7080-494F-94DE-6711B5A26FD2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D180A017-12D4-464B-8B99-BFD8800EDA76}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{407BA71B-D0B5-4725-AB57-A0003EE27480}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4A4BB2B0-5E68-43B4-8998-E96D65AE8F4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22803554-C815-4899-82F4-12460E9A9EA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4A1C94A-F67A-4777-ADB0-28FE5A3EF3E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E31A0C86-BD72-41AE-9A61-8DDE1623B599}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DD3BC0A-9102-4DB7-9FDD-68D956346104}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C207762-388A-45C0-B527-86EC56D9DE6B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75BA17B8-CD50-4658-8B03-43833AF07BB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4062BB3-7B0A-4D8A-91A5-EF241F3441D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F07011C2-F203-4D15-B71E-EA2F65F873FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AE37FAB-8395-4690-BD03-21910C585BDC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4F9170C-E95A-4586-ACF2-BFE7E9A2138D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72010182-49BB-4AA5-AC62-70F537D264F3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FE56DF89-6A75-4D3E-8115-A44CDD701A46}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD64CD98-986D-42F0-85AB-EE10820EE8E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{937115AC-E7B2-4810-82D5-6F3FDF5A71FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B605135-FEA7-49A6-AD73-612D7470BBB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{846D0F51-EF25-44DF-851A-07FD1BD43B37}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BFAA480-DE7A-407A-8B71-7B720312D55D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DE68416-7D09-4E8A-B10B-6B8CC25ED7E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{093ABF0C-32D8-4256-AB13-B12F6C73A8D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9163,7 +9163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53376DD-0BEB-4F66-BDCB-C5C1425BE36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145267F1-CDC1-4CED-AB0A-F4235FF8277F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10451,17 +10451,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2CD2EF1-F0E2-4BB3-B602-BB961BDA04D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E6E84B0-348B-44C6-96E7-F5FFB5BB4D9F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC0E9FA5-CDB7-479D-B6B5-D077DCEC2D67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87176D90-CD48-47F2-B5B7-8958DF1ACF60}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7095B476-7C23-470A-88CB-9160C1CECF14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA5B8105-B50C-4029-9584-8E016B959DB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D2C2BB1-2673-4727-8B84-10C7F999B831}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9AAA5CC5-5DD7-426B-BDE0-E822A17CD8A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14C6EC0E-B389-430D-8445-347699469072}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{860C0BFD-2C4F-4AB8-BDDE-878D6F9A6E59}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F47061B6-1A7F-457B-AC80-56A9B84ADD82}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AF850B9-46A0-4227-9399-20179358241C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1C0FD08-FA45-454E-B6A2-ACDD1D4605CB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{332C42E8-86D6-4CB9-A246-988D825F05DF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B37297D7-0A41-47AC-BDA9-B62A110BCA9B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{836FB6F1-855A-46FA-9CE2-2EC1DF081B3C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF5B2C1C-0150-4905-BCB2-46B3B3B40765}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28AE16B1-9950-4D27-8C23-C7E50C29C4CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF77273F-A993-4E36-86C2-ABEA5F240B85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1AA01BF-BCCA-40AB-A208-22CE34B1C9F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE27B307-47A3-4EA7-9102-707AA76DDFF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E51B942E-6692-481E-A0CE-FDF4057541D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10474,7 +10474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5264075F-28D7-4931-B423-8A42F6887BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D6D75E-91E0-4F5C-A8A1-FFC36FCC2BDA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11765,18 +11765,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BEE5A6C-308E-4B57-81EE-ABB77E4FEDED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B97129D9-CA60-46D8-A59E-EFFAAB06BCC4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1056E8A4-DF6C-4E51-9CF1-7108C9DE9D3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D0605D6-F420-41A8-B2F1-172564613191}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{449ED24B-EB48-453F-AB13-378B923A88CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D742734-DE0A-44DF-B770-EF29895CC454}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{001E4DF3-FD2B-4286-A739-F9A525AFD309}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A898DDB2-3F1F-4B23-9BA1-AFA260744FC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1160C831-7598-4F59-86D7-FC9C4543AA3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E4E5209-981B-4C90-809A-E8AC32739B65}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78F34E0B-C894-47F3-AC10-8FDDCEE3ABB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69D4821E-506A-4054-85AD-FFBC7972CBFD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF63DE41-EFAD-4CBF-9C77-DC10E1F1F757}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0C6363F-3CD4-4913-9A8A-942322458416}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4364BC7C-3684-4362-BCF6-23969DA17102}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CF4E0CC-B616-4B9B-B819-EB1990A6B1CE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5D517B4B-1850-41C4-9860-3A11B38DBAC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5F4DB02-8162-461E-8008-39A268C3B9E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{267E364C-9D7A-46C9-A959-305993D739B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC6B40B4-53E8-47FB-8AD3-0B0EB7BA5D81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F4694AD-9811-416F-98F1-A276D421B3D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44B2FD76-4A3D-434A-9F92-74977FC36757}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA6EE869-108C-4737-A87F-8E4CF84CE8AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90D5B703-00DD-4983-975A-13FE766DDF94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11789,7 +11789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109607F4-0A72-46C4-9378-9D22B5A756C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14364A73-0746-423B-A168-EF6838099422}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13080,18 +13080,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C52EAF8-BFF7-4FE4-93A0-1CD4637C8CB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C00E370-66E2-4C85-8AB5-26E686242DB0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3F40DFBE-2E48-46CA-82F8-02285810621F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9012F039-A19F-45E3-8C44-FBC4D3A95299}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B647FF64-C484-4855-9348-62202EFAA948}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E094C09-E406-44ED-8725-27F4F346E7B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AB7E9BF-0D15-43DE-B6FA-649109724FB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7477B11C-A0CE-4621-9148-780BC5F41BAE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8947C5B-E04B-4326-8FF8-D6804EB54E20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE902478-94C4-4078-8C9C-5D23A5061956}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6217CB02-F143-408B-9C8B-2097A555825A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6776F10-2086-4412-B920-345E057A9134}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{758ECE4B-BAD7-47A8-B3F5-B3DB9B279CE9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C23680DB-1A07-4DAC-B66E-249A94423CEB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{277AE657-CB10-411C-ABE2-53C30ED16F36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6044E247-D276-438A-8A81-BDD95F6D41E6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2BFEEBB9-0BA8-4E1B-A931-52EC67FA2842}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8C9CB25-126A-4856-BA83-FFFC9290FA53}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1682E33-3FC1-428B-976F-0ED668050FB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8E0BBE5-35F3-4362-8B21-0F43554A840F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38623AB9-5EE9-40F8-B8C9-D0056DC5B1C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5405849-856D-4CE1-B638-88560F65CAE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6E7F501-87FE-4274-829E-4BCB6963BB19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{589FE987-F15F-4DCA-B481-D158CF61CA79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13104,7 +13104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312B5541-4766-4946-8DED-AC3B79CD6F1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531644A1-EB95-469C-BD9F-34A0E1B0FBBB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14395,18 +14395,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F91D879-6281-49E8-A5A1-FABBC711C888}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E58AC63-3239-4C4E-ACAB-4B64344F0F6B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFDD2D2D-F4F5-46C4-9D58-F7E28605B04B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D195D656-9519-4516-9FCA-71557BA2B66A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BDA40E2A-A414-44B1-9BAB-B93704D9D6AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EC565D1-E663-4CD3-B51E-2DE80D4D6F89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4862693-14E2-4BE2-822E-808BEFC8E500}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{890F8B35-F60D-4F0C-B617-EEE2BDA0028A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{500890C4-7080-4227-ADB7-170E63B337CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB24865A-3FC8-441A-9D23-DB5FB60CB99D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DB77DE0-AA53-4DFF-8049-A3BA48C60084}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20133B6D-A0FF-4087-9AF1-6F2A209AABFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D71E8F25-BB3F-4681-88D0-0DE124F0531C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{602AC18D-002F-4F3F-B9D8-81AEEF2872D4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{95FD425D-3AD5-47BA-B271-86876DFCCA05}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09FF1749-563B-4E9C-910B-8EEC8EC116F2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{78FF9348-0057-4491-874B-957687BFDAB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BDF3820-D9E2-4370-9CE3-E2CF976348FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF2E72BE-A38A-4286-AE93-608841E51915}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E72AB92-BD0E-4EA7-BFF5-DE993367A523}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4074BFAB-B4C3-4D35-9F46-3460D88E49CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6759806D-34B7-41DE-B6BB-97E61767F305}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF74C0E5-C7C1-42AB-810C-2E01CB7D3B3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07BBDC39-48F4-4876-A5CC-B8DC0E77621A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14419,7 +14419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA03FF1-4C08-4ABB-9F91-4D4FD69B5D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8B2FE0-4EAD-412C-A385-E32C80DB7DCA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15706,18 +15706,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1F88122-CE48-4543-90BC-EA0E01C503D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55A3A471-98D2-46DD-B3BC-A97AAE225945}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CED42029-3C47-40BA-981D-3DA5E9B998C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16E06986-AFAA-4CC3-ACB5-4A358C18037E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DED6B50F-6C1F-4BBD-A9E6-14BD6F2C7311}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BC1C78F-4779-46F5-87A7-C599AED1EEA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E119E43B-32C9-40B5-9F39-044BB51DB8A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9DD943F-C380-4C8E-B218-2CF8F46542DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FE53E14-7F68-4737-80E2-ADBFDBAED69A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF55243C-6905-4B21-90B8-4BC5B499E13B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B082D25A-3C81-43CE-BF54-E19F3E8407CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A43EDDDF-324C-49B9-9635-1E348D15D637}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C64DE6B-F580-41B6-888F-43EBF76D19CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E31F27D7-815E-4534-8518-6CD15534E75E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A5EF259-85AB-4C74-BC95-750044BCDE0A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADBA33A4-362C-410D-A114-DB70AC7FE878}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6A190639-2E03-4C91-AEF6-E81D2BCF0EAE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D6B6371-034E-4C9B-BED8-596490BF05A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F78894E-8F10-4308-B41B-64792A0F675D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28A02770-E9F6-4300-BA8F-003ED9200C65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA2AFCAA-2FC7-4555-9D5B-46485506D7A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A550384-E5EF-4435-B68E-8168E412905B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{479794EE-EE1A-426A-A9CE-0EAAE60ECEE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4EE009A7-3D40-4990-9E4D-E85E36E438C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15730,7 +15730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFE0A15-12CC-40DE-9348-9FBE79EFFFE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD841787-6488-47FE-B213-9113D50E6D03}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17013,18 +17013,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE49A11D-8EF7-4796-AA56-130D933FA260}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F919E71C-5B72-449F-91F2-AE992671B069}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E63C19D-EC84-4A40-8B4B-8B43459F839A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6963F4A-E2BC-4C24-9743-8E8319805B13}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AB51666C-22CE-4B0B-B839-8A86D74B6D36}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69C03368-0331-4D42-AE91-C9B0385795A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1B052DB-4094-4AE2-894C-DC2F153F0F5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA6C5E8F-D108-4EEB-A0FE-9D92B2D7A1FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D07FC1EE-E4C7-4D19-A17D-8BA7AF8E9AFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05ED0CB4-D202-4702-8C52-26862BA0CDBD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{190C6E87-12F2-4F0A-BDEC-E03F4AFAE085}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA3968C1-8B89-4828-AB1A-3617A16419BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC7FFC4A-7AF0-4311-BC79-33936C10ABDA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06A17CED-EA47-402C-AD79-97920338CDF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97B3CD03-BC6F-4256-8070-79BCECE37658}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3C5EEFC-5B20-4A8C-B16A-0065659669A4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{243B334D-397F-4A6B-B45C-D5F9825CF66D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C408B920-F60C-4850-9D5F-3012A98339A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A82111C-E10D-4360-B6EA-E82C0474156A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB1AD97C-AFED-42A2-ADCB-676A66754DE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0791D63C-E712-4B34-935C-600BC0774883}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D62980A9-830E-44B6-99FE-044095F33C6D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AEBE8A46-799C-46DD-A8BA-B17D36BA8B00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5018CDC-9A32-43BD-A34C-F188F82B7E13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
